--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C16DF-C75F-E349-9765-E44A65ADB7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54462-6E4C-0B47-A2AF-812D98B5BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>name_EN</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>Ateco_1</t>
+  </si>
+  <si>
+    <t>clad3</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,16 +1157,16 @@
       <c r="B8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1908,7 +1914,7 @@
         <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>84</v>
@@ -2040,7 +2046,7 @@
         <v>90</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>90</v>

--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54462-6E4C-0B47-A2AF-812D98B5BED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127C0E2-6610-F94C-9360-2A750FF36B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
@@ -327,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,19 +375,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -417,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -449,11 +450,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,12 +799,12 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" style="13" customWidth="1"/>
     <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="10.83203125" customWidth="1"/>
     <col min="9" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -1516,7 +1520,7 @@
       <c r="E15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -1566,7 +1570,7 @@
       <c r="E16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1616,7 +1620,7 @@
       <c r="E17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="7" t="s">

--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127C0E2-6610-F94C-9360-2A750FF36B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844CA40-342C-0441-A8F7-8A618DACF311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
@@ -799,7 +799,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15:F17"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1921,10 +1921,10 @@
         <v>94</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
@@ -2053,10 +2053,10 @@
         <v>93</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>

--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844CA40-342C-0441-A8F7-8A618DACF311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA98C97-3E9F-054F-AFC8-DA3D5141E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>I1b</t>
   </si>
   <si>
-    <t>F1b</t>
-  </si>
-  <si>
     <t>Size by number of employees</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>clad3</t>
+  </si>
+  <si>
+    <t>F1B</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,22 +1159,22 @@
         <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>29</v>
@@ -1259,22 +1259,22 @@
         <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>24</v>
@@ -1874,7 +1874,7 @@
         <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>51</v>
@@ -1901,183 +1901,183 @@
       </c>
       <c r="N22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>UC_F1b</v>
+        <v>UC_F1B</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA98C97-3E9F-054F-AFC8-DA3D5141E8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3270050-D93D-3C40-9656-E9F1939040E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
@@ -799,7 +799,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Processed/vars&codes.xlsx
+++ b/Data/Processed/vars&codes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3270050-D93D-3C40-9656-E9F1939040E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD3D1F4-D3C1-8646-94DC-FC8EC5C2C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{4717F769-BFD2-BB4B-A69E-A3D49C1494B3}"/>
   </bookViews>
   <sheets>
     <sheet name="vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,9 +155,6 @@
     <t>C2_</t>
   </si>
   <si>
-    <t>Internet download speed low</t>
-  </si>
-  <si>
     <t>Enterprise provides mobile devices with mobile connection</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>F1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet download </t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -453,10 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +796,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F22"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,22 +1156,22 @@
         <v>35</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>29</v>
@@ -1256,25 +1253,25 @@
     </row>
     <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>24</v>
@@ -1306,25 +1303,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>24</v>
@@ -1356,28 +1353,28 @@
     </row>
     <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1406,28 +1403,28 @@
     </row>
     <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1456,28 +1453,28 @@
     </row>
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1506,28 +1503,28 @@
     </row>
     <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1556,28 +1553,28 @@
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1606,28 +1603,28 @@
     </row>
     <row r="17" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="I17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1656,28 +1653,28 @@
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1706,28 +1703,28 @@
     </row>
     <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1756,28 +1753,28 @@
     </row>
     <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1806,28 +1803,28 @@
     </row>
     <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1856,28 +1853,28 @@
     </row>
     <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1906,178 +1903,178 @@
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
